--- a/Economics/Forecast/Non-Stationarity/Price/Ind_prod.xlsx
+++ b/Economics/Forecast/Non-Stationarity/Price/Ind_prod.xlsx
@@ -417,16 +417,16 @@
         <v>99</v>
       </c>
       <c r="C2">
-        <v>97.36965589202059</v>
+        <v>0.1497825920879361</v>
       </c>
       <c r="D2">
-        <v>78.18206292515606</v>
+        <v>-3.98584745122634</v>
       </c>
       <c r="E2">
-        <v>116.5572488588851</v>
+        <v>4.285412635402212</v>
       </c>
       <c r="F2">
-        <v>98.48999999999999</v>
+        <v>1.233425840271342</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -437,16 +437,16 @@
         <v>100</v>
       </c>
       <c r="C3">
-        <v>98.56378981714799</v>
+        <v>0.1516122570747897</v>
       </c>
       <c r="D3">
-        <v>79.47113793214608</v>
+        <v>-3.968746313475258</v>
       </c>
       <c r="E3">
-        <v>117.6564417021499</v>
+        <v>4.271970827624838</v>
       </c>
       <c r="F3">
-        <v>92.59</v>
+        <v>-5.990455883846067</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -457,16 +457,16 @@
         <v>101</v>
       </c>
       <c r="C4">
-        <v>92.12345844930189</v>
+        <v>-0.6354385256807041</v>
       </c>
       <c r="D4">
-        <v>73.08996629635737</v>
+        <v>-4.906190385021159</v>
       </c>
       <c r="E4">
-        <v>111.1569506022464</v>
+        <v>3.635313333659751</v>
       </c>
       <c r="F4">
-        <v>98.69</v>
+        <v>6.58818446916513</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -477,16 +477,16 @@
         <v>102</v>
       </c>
       <c r="C5">
-        <v>98.55029660841667</v>
+        <v>0.1104333262791621</v>
       </c>
       <c r="D5">
-        <v>79.57114072904011</v>
+        <v>-4.348296707946771</v>
       </c>
       <c r="E5">
-        <v>117.5294524877932</v>
+        <v>4.569163360505096</v>
       </c>
       <c r="F5">
-        <v>98.19</v>
+        <v>-0.506636943965954</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -497,16 +497,16 @@
         <v>103</v>
       </c>
       <c r="C6">
-        <v>98.17531785320135</v>
+        <v>-0.00461012215151353</v>
       </c>
       <c r="D6">
-        <v>79.28840123554416</v>
+        <v>-4.443112394253335</v>
       </c>
       <c r="E6">
-        <v>117.0622344708585</v>
+        <v>4.433892149950308</v>
       </c>
       <c r="F6">
-        <v>95.79000000000001</v>
+        <v>-2.444240757714626</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -517,16 +517,16 @@
         <v>104</v>
       </c>
       <c r="C7">
-        <v>95.8213975690384</v>
+        <v>-0.02789969952678313</v>
       </c>
       <c r="D7">
-        <v>77.01991257826788</v>
+        <v>-4.469816080184262</v>
       </c>
       <c r="E7">
-        <v>114.6228825598089</v>
+        <v>4.414016681130696</v>
       </c>
       <c r="F7">
-        <v>90.09</v>
+        <v>-5.950516755402446</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -537,16 +537,16 @@
         <v>105</v>
       </c>
       <c r="C8">
-        <v>90.01190324492174</v>
+        <v>-0.2287814586840478</v>
       </c>
       <c r="D8">
-        <v>71.26854343324264</v>
+        <v>-4.790766975334943</v>
       </c>
       <c r="E8">
-        <v>108.7552630566008</v>
+        <v>4.333204057966848</v>
       </c>
       <c r="F8">
-        <v>92.19</v>
+        <v>2.331002331002324</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -557,16 +557,16 @@
         <v>106</v>
       </c>
       <c r="C9">
-        <v>92.13018869066279</v>
+        <v>0.02741441357446587</v>
       </c>
       <c r="D9">
-        <v>73.4711599014019</v>
+        <v>-4.537469397278846</v>
       </c>
       <c r="E9">
-        <v>110.7892174799237</v>
+        <v>4.592298224427777</v>
       </c>
       <c r="F9">
-        <v>97.09</v>
+        <v>5.315110098709193</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -577,16 +577,16 @@
         <v>107</v>
       </c>
       <c r="C10">
-        <v>97.08928906275774</v>
+        <v>0.1761402792339545</v>
       </c>
       <c r="D10">
-        <v>78.494100022971</v>
+        <v>-4.475498945933574</v>
       </c>
       <c r="E10">
-        <v>115.6844781025445</v>
+        <v>4.827779504401483</v>
       </c>
       <c r="F10">
-        <v>96.98999999999999</v>
+        <v>-0.1029972190750938</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -597,16 +597,16 @@
         <v>108</v>
       </c>
       <c r="C11">
-        <v>96.96344836145711</v>
+        <v>-0.003160850096694584</v>
       </c>
       <c r="D11">
-        <v>78.45454022580824</v>
+        <v>-4.633500684722006</v>
       </c>
       <c r="E11">
-        <v>115.472356497106</v>
+        <v>4.627178984528617</v>
       </c>
       <c r="F11">
-        <v>94.89</v>
+        <v>-2.165171667182178</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -617,16 +617,16 @@
         <v>109</v>
       </c>
       <c r="C12">
-        <v>94.85340888432785</v>
+        <v>-0.06724465063253164</v>
       </c>
       <c r="D12">
-        <v>76.42548861863753</v>
+        <v>-4.694131977634148</v>
       </c>
       <c r="E12">
-        <v>113.2813291500182</v>
+        <v>4.559642676369085</v>
       </c>
       <c r="F12">
-        <v>97.09</v>
+        <v>2.318474022552432</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -637,16 +637,16 @@
         <v>110</v>
       </c>
       <c r="C13">
-        <v>97.05032159798638</v>
+        <v>0.05234456504547472</v>
       </c>
       <c r="D13">
-        <v>78.70164811902487</v>
+        <v>-4.574828408032481</v>
       </c>
       <c r="E13">
-        <v>115.3989950769479</v>
+        <v>4.679517538123431</v>
       </c>
       <c r="F13">
-        <v>96.69</v>
+        <v>-0.4119888763003458</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -657,16 +657,16 @@
         <v>111</v>
       </c>
       <c r="C14">
-        <v>96.66761198951087</v>
+        <v>-0.008580748663261759</v>
       </c>
       <c r="D14">
-        <v>78.40165591666917</v>
+        <v>-4.615666603025946</v>
       </c>
       <c r="E14">
-        <v>114.9335680623526</v>
+        <v>4.598505105699423</v>
       </c>
       <c r="F14">
-        <v>95.39</v>
+        <v>-1.34450305098769</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -677,16 +677,16 @@
         <v>112</v>
       </c>
       <c r="C15">
-        <v>95.3737259303159</v>
+        <v>-0.02920798879425213</v>
       </c>
       <c r="D15">
-        <v>77.18795820499226</v>
+        <v>-4.622346938191828</v>
       </c>
       <c r="E15">
-        <v>113.5594936556395</v>
+        <v>4.563930960603323</v>
       </c>
       <c r="F15">
-        <v>88.69</v>
+        <v>-7.023797043715277</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -697,16 +697,16 @@
         <v>113</v>
       </c>
       <c r="C16">
-        <v>88.57049905850059</v>
+        <v>-0.2595704110906816</v>
       </c>
       <c r="D16">
-        <v>70.42370429551869</v>
+        <v>-5.010209116824287</v>
       </c>
       <c r="E16">
-        <v>106.7172938214825</v>
+        <v>4.491068294642924</v>
       </c>
       <c r="F16">
-        <v>96.48999999999999</v>
+        <v>8.794678092231365</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -717,16 +717,16 @@
         <v>114</v>
       </c>
       <c r="C17">
-        <v>95.69202085166988</v>
+        <v>-0.514006559250896</v>
       </c>
       <c r="D17">
-        <v>77.57257699025227</v>
+        <v>-5.50684954057078</v>
       </c>
       <c r="E17">
-        <v>113.8114647130875</v>
+        <v>4.478836422068987</v>
       </c>
       <c r="F17">
-        <v>97.19</v>
+        <v>0.7254637786299127</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -737,16 +737,16 @@
         <v>115</v>
       </c>
       <c r="C18">
-        <v>97.04597482529319</v>
+        <v>-0.03177655923707534</v>
       </c>
       <c r="D18">
-        <v>79.00358365980981</v>
+        <v>-5.007498296668363</v>
       </c>
       <c r="E18">
-        <v>115.0883659907766</v>
+        <v>4.943945178194213</v>
       </c>
       <c r="F18">
-        <v>99.69</v>
+        <v>2.572281098878486</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -757,16 +757,16 @@
         <v>116</v>
       </c>
       <c r="C19">
-        <v>99.46160950464457</v>
+        <v>-0.1061447099340566</v>
       </c>
       <c r="D19">
-        <v>81.49076138596746</v>
+        <v>-5.08297157897272</v>
       </c>
       <c r="E19">
-        <v>117.4324576233217</v>
+        <v>4.870682159104606</v>
       </c>
       <c r="F19">
-        <v>98.39</v>
+        <v>-1.304042531848728</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -777,16 +777,16 @@
         <v>117</v>
       </c>
       <c r="C20">
-        <v>98.46142148632747</v>
+        <v>0.05916258313682065</v>
       </c>
       <c r="D20">
-        <v>80.56653355770732</v>
+        <v>-4.901057432326152</v>
       </c>
       <c r="E20">
-        <v>116.3563094149476</v>
+        <v>5.019382598599792</v>
       </c>
       <c r="F20">
-        <v>95.29000000000001</v>
+        <v>-3.150726699867866</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -797,16 +797,16 @@
         <v>118</v>
       </c>
       <c r="C21">
-        <v>95.50917620215678</v>
+        <v>0.1254237993556353</v>
       </c>
       <c r="D21">
-        <v>77.68111610915741</v>
+        <v>-4.847501576731774</v>
       </c>
       <c r="E21">
-        <v>113.3372362951561</v>
+        <v>5.098349175443045</v>
       </c>
       <c r="F21">
-        <v>95.98999999999999</v>
+        <v>0.734599643194447</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -817,16 +817,16 @@
         <v>119</v>
       </c>
       <c r="C22">
-        <v>95.92725014424335</v>
+        <v>-0.03109303523073107</v>
       </c>
       <c r="D22">
-        <v>78.17405258629131</v>
+        <v>-4.98427198354302</v>
       </c>
       <c r="E22">
-        <v>113.6804477021954</v>
+        <v>4.922085913081557</v>
       </c>
       <c r="F22">
-        <v>95.98999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -837,16 +837,16 @@
         <v>120</v>
       </c>
       <c r="C23">
-        <v>95.96033532952188</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>78.28126105769883</v>
+        <v>-4.932500676528433</v>
       </c>
       <c r="E23">
-        <v>113.6394096013449</v>
+        <v>4.932500676528433</v>
       </c>
       <c r="F23">
-        <v>91.29000000000001</v>
+        <v>-4.896343369100936</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -857,16 +857,16 @@
         <v>121</v>
       </c>
       <c r="C24">
-        <v>91.64256859806515</v>
+        <v>0.2070724368334631</v>
       </c>
       <c r="D24">
-        <v>74.01705598403819</v>
+        <v>-4.781879622109551</v>
       </c>
       <c r="E24">
-        <v>109.2680812120921</v>
+        <v>5.196024495776476</v>
       </c>
       <c r="F24">
-        <v>95.39</v>
+        <v>4.491181947639385</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -877,16 +877,16 @@
         <v>122</v>
       </c>
       <c r="C25">
-        <v>94.94747432386181</v>
+        <v>-0.3095231777665763</v>
       </c>
       <c r="D25">
-        <v>77.38234725311588</v>
+        <v>-5.334039263628294</v>
       </c>
       <c r="E25">
-        <v>112.5126013946077</v>
+        <v>4.714992908095142</v>
       </c>
       <c r="F25">
-        <v>95.59</v>
+        <v>0.2096655833944888</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -897,16 +897,16 @@
         <v>123</v>
       </c>
       <c r="C26">
-        <v>95.49507467202737</v>
+        <v>-0.01384546843421094</v>
       </c>
       <c r="D26">
-        <v>78.00113230699475</v>
+        <v>-5.018717906480945</v>
       </c>
       <c r="E26">
-        <v>112.98901703706</v>
+        <v>4.991026969612522</v>
       </c>
       <c r="F26">
-        <v>95.59</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
